--- a/media/Goods_Service_list.xlsx
+++ b/media/Goods_Service_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,43 +456,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>牛乳</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>preserved soybeans</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33A01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>麦</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>wheat, barley and oats, unprocessed</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33A01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>31D01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>290039</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/Goods_Service_list.xlsx
+++ b/media/Goods_Service_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,29 +451,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>牛乳</t>
+          <t>麦茶</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Mugi-cha [roasted barley tea]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31D01</t>
+          <t>29A01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>290039</t>
-        </is>
-      </c>
+          <t>300281</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>米</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>husked rice</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33A01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>米</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rice</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33A01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>300119</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>麦</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>wheat, barley and oats, unprocessed</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33A01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
